--- a/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,14 +435,10 @@
   <cols>
     <col width="53" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,144.40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>854.30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1,755.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,942.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3,835.20</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1,942.25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1,755.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>854.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,144.40</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3835.2</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>854.3</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2306.408</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>152.48</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>152.48</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>78.976</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,223.54</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>879.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,794.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2,042.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3,987.68</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2,042.08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,794.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>879.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,223.54</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3987.68</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>879</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2385.384</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,342.14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>672.82</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>780.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,227.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,649.51</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,227.04</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>780.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>672.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,342.14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1649.51</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>672.8200000000001</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1134.31</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>141.85</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>249.60</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>62.99</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>125.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>64.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>141.85</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>62.99</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>128.932</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-267.25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-52.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-260.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>161.20</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-260.17</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-52.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-267.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>39.20</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-267.25</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-75.986</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>336.58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>316.37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>327.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>343.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>561.13</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>343.19</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>327.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>316.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>336.58</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>561.13</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>316.37</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>376.978</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>57.11</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>45.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>48.91</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>57.11</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>48.086</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>457.71</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>131.90</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>275.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>186.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>386.61</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>186.26</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>275.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>131.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>457.71</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>457.71</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>287.598</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>857.15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-82.58</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>292.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>437.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>922.52</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>437.31</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>292.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-82.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>857.15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>922.52</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-82.58</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>485.466</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>138.33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>131.17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>171.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>90.86</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>77.60</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>171.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>131.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>138.33</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>171.39</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>121.87</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>995.48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>48.59</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>464.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>514.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,013.38</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>514.91</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>464.32</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>48.59</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>995.48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1013.38</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>607.336</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.89</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.64</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3.9725</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>991.37</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>48.59</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>464.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>504.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,012.49</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>504.27</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>464.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>48.59</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>991.37</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1012.49</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>604.158</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>991.37</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>48.59</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>464.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>504.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,012.49</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>504.27</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>464.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>48.59</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>991.37</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1012.49</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>604.158</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>246.69</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>117.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>130.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>220.75</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>130.73</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>117.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>246.69</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>246.69</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>145.698</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>744.68</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>346.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>373.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>791.74</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>373.54</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>346.25</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>36.09</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>744.68</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>791.74</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>458.46</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>744.68</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>346.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>373.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>791.74</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>373.54</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>346.25</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>36.09</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>744.68</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>791.74</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>458.46</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>223.36</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>223.36</t>
         </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>223.36</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>233.344</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>7.828</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>7.828</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>7.828</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>7.828</v>
       </c>
     </row>
     <row r="31"/>
